--- a/pantastikpor_schema.xlsx
+++ b/pantastikpor_schema.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9cf5801620dc8601/Desktop/itecc05 API/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c1f4124fd4e5ff29/Desktop/pantastikpor/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E6088E1F-6362-42AD-9A10-538EBC695490}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="107" documentId="8_{E6088E1F-6362-42AD-9A10-538EBC695490}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{594A2C7E-A1D9-4C0E-855F-66375F949EB3}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{A48F7284-8510-484D-A79A-A19B20C0B2A5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A48F7284-8510-484D-A79A-A19B20C0B2A5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,13 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="89">
-  <si>
-    <t>Admin</t>
-  </si>
-  <si>
-    <t>addResident</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="91">
   <si>
     <t>updateResident</t>
   </si>
@@ -90,9 +84,6 @@
     <t>GET</t>
   </si>
   <si>
-    <t>db_housing_management</t>
-  </si>
-  <si>
     <t>id</t>
   </si>
   <si>
@@ -108,48 +99,15 @@
     <t>lastName</t>
   </si>
   <si>
-    <t>phone</t>
-  </si>
-  <si>
-    <t>unitNum</t>
-  </si>
-  <si>
     <t>status</t>
   </si>
   <si>
-    <t>ACTIVE</t>
-  </si>
-  <si>
-    <t>INACTIVE</t>
-  </si>
-  <si>
-    <t>REMOVED</t>
-  </si>
-  <si>
     <t>residentID</t>
   </si>
   <si>
     <t>date</t>
   </si>
   <si>
-    <t>Maintenance Requests</t>
-  </si>
-  <si>
-    <t>addMaintenance</t>
-  </si>
-  <si>
-    <t>updateMaintenance</t>
-  </si>
-  <si>
-    <t>getAllMaintenance</t>
-  </si>
-  <si>
-    <t>getMaintenanceById</t>
-  </si>
-  <si>
-    <t>removeMaintenance</t>
-  </si>
-  <si>
     <t>maintenanceModel</t>
   </si>
   <si>
@@ -162,9 +120,6 @@
     <t>/api/maintenance/id</t>
   </si>
   <si>
-    <t>/api/maintenance/remove/id</t>
-  </si>
-  <si>
     <t>maintenanceRoute</t>
   </si>
   <si>
@@ -183,24 +138,12 @@
     <t>priority</t>
   </si>
   <si>
-    <t>High / Medium / Low</t>
-  </si>
-  <si>
-    <t>Pending / Completed</t>
-  </si>
-  <si>
     <t>dateSubmitted</t>
   </si>
   <si>
     <t>dateResolved</t>
   </si>
   <si>
-    <t>Announcements</t>
-  </si>
-  <si>
-    <t>addAnnouncement</t>
-  </si>
-  <si>
     <t>updateAnnouncement</t>
   </si>
   <si>
@@ -210,9 +153,6 @@
     <t>getAnnouncementById</t>
   </si>
   <si>
-    <t>removeAnnouncement</t>
-  </si>
-  <si>
     <t>announcementModel</t>
   </si>
   <si>
@@ -225,89 +165,155 @@
     <t>/api/announcements/id</t>
   </si>
   <si>
-    <t>/api/announcements/remove/id</t>
-  </si>
-  <si>
     <t>announcementRoute</t>
   </si>
   <si>
-    <t>DELETE</t>
-  </si>
-  <si>
     <t>announcementID</t>
   </si>
   <si>
     <t>type</t>
   </si>
   <si>
-    <t>Meeting / Notice</t>
-  </si>
-  <si>
     <t>dateTime</t>
   </si>
   <si>
     <t>datetime</t>
   </si>
   <si>
-    <t>createdBy</t>
-  </si>
-  <si>
-    <t>int (adminID)</t>
-  </si>
-  <si>
-    <t>Event Attendees</t>
-  </si>
-  <si>
     <t>updateAttendee</t>
   </si>
   <si>
-    <t>getAttendeeByAnnouncementId</t>
-  </si>
-  <si>
-    <t>removeAttendee</t>
-  </si>
-  <si>
-    <t>attendeeModel</t>
-  </si>
-  <si>
-    <t>addAttendee</t>
-  </si>
-  <si>
-    <t>attendeeController</t>
-  </si>
-  <si>
     <t>/api/attendees</t>
   </si>
   <si>
     <t>/api/attendees/id</t>
   </si>
   <si>
-    <t>/api/attendees/announcement/id</t>
-  </si>
-  <si>
-    <t>/api/attendees/remove/id</t>
-  </si>
-  <si>
-    <t>attendeeRoute</t>
-  </si>
-  <si>
     <t>attendeeID</t>
   </si>
   <si>
-    <t>eventID</t>
-  </si>
-  <si>
-    <t>attendanceStatus</t>
-  </si>
-  <si>
-    <t>confirmed / declined / pending</t>
+    <t>db_housingcoopsystem</t>
+  </si>
+  <si>
+    <t>createResident</t>
+  </si>
+  <si>
+    <t>getResidentByStatus</t>
+  </si>
+  <si>
+    <t>getRemovedResidents</t>
+  </si>
+  <si>
+    <t>/api/residents/status/status</t>
+  </si>
+  <si>
+    <t>/api/residents/Removed</t>
+  </si>
+  <si>
+    <t>residents</t>
+  </si>
+  <si>
+    <t>maintenance</t>
+  </si>
+  <si>
+    <t>getAllRequests</t>
+  </si>
+  <si>
+    <t>getRequestsById</t>
+  </si>
+  <si>
+    <t>createRequests</t>
+  </si>
+  <si>
+    <t>updateRequestsStatus</t>
+  </si>
+  <si>
+    <t>filterRequests</t>
+  </si>
+  <si>
+    <t>announcement</t>
+  </si>
+  <si>
+    <t>createAnnouncement</t>
+  </si>
+  <si>
+    <t>getAnnouncementByType</t>
+  </si>
+  <si>
+    <t>/api/announcements/Type/Type</t>
+  </si>
+  <si>
+    <t>/api/maintenance/filter?status=status&amp;priority=priority                             /api/maintenance/filter?status=status/priority=priority</t>
+  </si>
+  <si>
+    <t>attendees</t>
+  </si>
+  <si>
+    <t>createAttendee</t>
+  </si>
+  <si>
+    <t>getAttendeeById</t>
+  </si>
+  <si>
+    <t>getAllAttendees</t>
+  </si>
+  <si>
+    <t>attendeesModel</t>
+  </si>
+  <si>
+    <t>attendeesController</t>
+  </si>
+  <si>
+    <t>attendeesRoute</t>
+  </si>
+  <si>
+    <t>AUTO_INCREMENT</t>
+  </si>
+  <si>
+    <t>phoneNumber</t>
+  </si>
+  <si>
+    <t>bigint</t>
+  </si>
+  <si>
+    <t>unitNumber</t>
+  </si>
+  <si>
+    <t>enum</t>
+  </si>
+  <si>
+    <t>FOREIGN KEY TO tbl_residents COLUMN id</t>
+  </si>
+  <si>
+    <t>current_timestamp()</t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
+    <t>GOING','NOT GOING'</t>
+  </si>
+  <si>
+    <t>FOREIGN KEY TO tbl_announcements COLUMN announcementID</t>
+  </si>
+  <si>
+    <t>Meeting','Notice'</t>
+  </si>
+  <si>
+    <t>High','Medium','Low'</t>
+  </si>
+  <si>
+    <t>Pending','Completed'</t>
+  </si>
+  <si>
+    <t>Active', 'Inactive','Removed'</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -344,7 +350,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -354,6 +360,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -689,143 +698,165 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8820CA0C-6A9B-41BC-8803-C042CC19A9A6}">
-  <dimension ref="A1:I51"/>
+  <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F48" sqref="F48"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.5" customWidth="1"/>
-    <col min="2" max="2" width="21.875" customWidth="1"/>
-    <col min="3" max="3" width="22.625" customWidth="1"/>
-    <col min="4" max="4" width="33.5" customWidth="1"/>
-    <col min="5" max="5" width="22.25" customWidth="1"/>
-    <col min="6" max="6" width="24.375" customWidth="1"/>
-    <col min="8" max="8" width="10.375" customWidth="1"/>
-    <col min="9" max="9" width="25.875" customWidth="1"/>
+    <col min="1" max="1" width="25.44140625" customWidth="1"/>
+    <col min="2" max="2" width="21.88671875" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" customWidth="1"/>
+    <col min="4" max="4" width="33.44140625" customWidth="1"/>
+    <col min="5" max="5" width="22.21875" customWidth="1"/>
+    <col min="6" max="6" width="57.44140625" customWidth="1"/>
+    <col min="7" max="7" width="18.44140625" customWidth="1"/>
+    <col min="8" max="8" width="24.5546875" customWidth="1"/>
+    <col min="9" max="9" width="25.88671875" customWidth="1"/>
+    <col min="10" max="10" width="17.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="G3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1" t="s">
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
-      <c r="B4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1" t="s">
+    <row r="5" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="B5" s="1" t="s">
+      <c r="D5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="G5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1" t="s">
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="B6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="E6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="C8" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="15">
-      <c r="B8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="D8" s="1">
         <v>10</v>
       </c>
       <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
+      <c r="F8" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9" ht="15">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D9" s="1">
         <v>100</v>
@@ -836,12 +867,12 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9" ht="15">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D10" s="1">
         <v>100</v>
@@ -852,12 +883,12 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9" ht="15">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
-        <v>24</v>
+        <v>78</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>20</v>
+        <v>79</v>
       </c>
       <c r="D11" s="1">
         <v>11</v>
@@ -868,12 +899,12 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9" ht="15">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D12" s="1">
         <v>5</v>
@@ -884,24 +915,20 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9" ht="15">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B13" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>81</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -911,146 +938,150 @@
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B20" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I19" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="B20" s="1" t="s">
+      <c r="C20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="E20" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:9" ht="15">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B22" s="2" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D22" s="1">
         <v>10</v>
       </c>
       <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
+      <c r="F22" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:9" ht="15">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B23" s="2" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D23" s="1">
         <v>10</v>
       </c>
       <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
+      <c r="F23" s="1" t="s">
+        <v>82</v>
+      </c>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="1:9" ht="15">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B24" s="2" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D24" s="1">
         <v>100</v>
@@ -1061,28 +1092,26 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="1:9" ht="15">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B25" s="2" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D25" s="1">
-        <v>100</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
     </row>
-    <row r="26" spans="1:9" ht="15">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B26" s="2" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>49</v>
+        <v>81</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>88</v>
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
@@ -1090,15 +1119,15 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="1:9" ht="15">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B27" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>50</v>
+        <v>81</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>89</v>
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
@@ -1106,152 +1135,156 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="1:9" ht="15">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B28" s="2" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D28" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="15">
+        <v>23</v>
+      </c>
+      <c r="D28" s="1"/>
+      <c r="F28" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B29" s="2" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D29" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="D29" s="1"/>
+      <c r="F29" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="G31" s="1"/>
       <c r="H31" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B32" s="1" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="G32" s="1"/>
       <c r="H32" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="28.5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B33" s="1" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G33" s="1"/>
       <c r="H33" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B34" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I33" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
-      <c r="B34" s="1" t="s">
+      <c r="C34" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C34" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="E34" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
     </row>
-    <row r="36" spans="1:9" ht="15">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B36" s="2" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D36" s="1">
         <v>10</v>
       </c>
       <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
+      <c r="F36" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
     </row>
-    <row r="37" spans="1:9" ht="15">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B37" s="2" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D37" s="1">
         <v>100</v>
@@ -1262,31 +1295,29 @@
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
     </row>
-    <row r="38" spans="1:9" ht="15">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B38" s="2" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D38" s="1">
-        <v>100</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="D38" s="1"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
     </row>
-    <row r="39" spans="1:9" ht="15">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B39" s="2" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>68</v>
+        <v>81</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>87</v>
       </c>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
@@ -1294,175 +1325,174 @@
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
     </row>
-    <row r="40" spans="1:9" ht="15">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B40" s="2" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="C40" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D40" s="1"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="1"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
         <v>70</v>
       </c>
-      <c r="D40" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="15">
-      <c r="B41" s="2" t="s">
+      <c r="B43" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C43" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D43" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D41" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
-      <c r="A43" t="s">
+      <c r="E43" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>76</v>
       </c>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
       <c r="H43" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B44" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
       <c r="H44" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B45" s="1" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>82</v>
+        <v>50</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
       <c r="H45" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B46" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I45" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
-      <c r="B46" s="1" t="s">
+      <c r="C46" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D46" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C46" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="E46" s="1" t="s">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
     </row>
-    <row r="48" spans="1:9" ht="15">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B48" s="2" t="s">
-        <v>85</v>
+        <v>51</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D48" s="1">
         <v>10</v>
       </c>
       <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
+      <c r="F48" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
     </row>
-    <row r="49" spans="2:9" ht="15">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B49" s="2" t="s">
-        <v>86</v>
+        <v>44</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D49" s="1">
         <v>10</v>
       </c>
       <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
+      <c r="F49" s="1" t="s">
+        <v>86</v>
+      </c>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
     </row>
-    <row r="50" spans="2:9" ht="15">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B50" s="2" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D50" s="1">
         <v>10</v>
       </c>
       <c r="E50" s="1"/>
-    </row>
-    <row r="51" spans="2:9" ht="15">
+      <c r="F50" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B51" s="2" t="s">
-        <v>87</v>
+        <v>21</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>88</v>
+        <v>81</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
